--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI绘画\Painting-Prompts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C46CA0-574F-4B42-AAD0-E958ED0C450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9636BBA9-6670-4DF2-9C70-C0572261008A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="3390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>prompts</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,66 @@
   </si>
   <si>
     <t>pic_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00072-937784036-a girl, masterpiece, best quality, official art, extremely detailed CG unity 8K wallpaper, full body, looking at viewer, hand on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a girl, masterpiece, best quality, official art, extremely detailed CG unity 8K wallpaper, full body, looking at viewer, hand on own face</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00266-1086063107-(masterpiece, realistic_1.4), (extremely intricate_1.2)_, close shot , portrait,(upper body_1.2), (from front_1.3), 191971 dress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(masterpiece, realistic:1.4), (extremely intricate:1.2)&gt;, close shot , portrait,(upper body:1.2), (from front:1.3), 191971 dress, backless dress, (long dress:1.2), very long hair, breasts, bare shoulders, sky, ocean, water, looking at viewer, italian, head tilt, wind, cloud, sunlight, outdoor, 1girl, solo, BREAK, cinematic light, ultra high res, 8k uhd, film grain, perfect anatomy, exquisitely detailed skin, best shadow, delicate, RAW,highres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(worst quality, low quality:1.4), (depth of field, blurry:1.2), (greyscale, monochrome:1.1), 3D face, cropped, lowres, text, jpeg artifacts, signature, watermark, username, blurry, artist name, trademark, watermark, title, multiple view, Reference sheet, curvy, plump, fat, muscular female, strabismus, nsfw, nipple, navel, bare thighs, midriff, bare legs, hat,animal ears</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00202-2430427721-_(photorealistic_1.3), (intricate details_1.2), small head_, upper shot, BREAK, _teenager, ultra high res, 8k uhd, dslr, film gr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;(photorealistic:1.3), (intricate details:1.2), small head&gt;, upper shot, BREAK, &lt;teenager, ultra high res, 8k uhd, dslr, film grain, perfect anatomy, detailed skin&gt;, solo focus, looking at viewer, parted lips, 1girl,(best illumination, best shadow, an extremely delicate and beautiful, bloom), high saturation, perfect female body, mature female 1girl, gorgeous,li sushang (jade knight), chinese clothes, china dress, pelvic curtain, official costume, multicolored hair, two-tone hair, brown hair, (blue hair:1.3), wing hair ornament, 1girl, dress, long hair, white dress, solo, gloves, hair ornament, breasts, bare shoulders, looking at viewer, twintails, white gloves, bangs, smile, jewelry, brown eyes, purple eyes, closed mouth, sleeveless dress, one eye closed, two-finger salute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(worst quality, normal quality, low quality:1.5), paintings, sketches, freckles, lowres, monochrome, grayscale, bad proportions, nsfw, nipples, watermark, signature, text, nsfw, curvy, plump, fat, muscular female, nude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worst quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00119-3425024567-skyscraper, city, global,  masterpiece,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skyscraper, city, global, masterpiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo of Guangzhou city as a rich space colony with planet Earth seen behind it, futuristic, realistic, modern, shot from space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00122-4174242138-photo of Guangzhou city as a rich space colony with planet Earth seen behind it, futuristic, realistic, modern, shot from space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00355-1753820093-mature female 1girl, official costume, multicolored hair, two-tone hair, brown hair, wearing pink glasses,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mature female 1girl, official costume, multicolored hair, two-tone hair, brown hair, wearing pink glasses</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,8 +139,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -361,23 +425,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.75" customWidth="1"/>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI绘画\Painting-Prompts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9636BBA9-6670-4DF2-9C70-C0572261008A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14971FFA-C53F-46E3-B22B-210C5482F2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4335" yWindow="3390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>prompts</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,30 @@
   </si>
   <si>
     <t>mature female 1girl, official costume, multicolored hair, two-tone hair, brown hair, wearing pink glasses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00368-840804420-upward slope, masterpiece, 1 main road, (cars_1.2), cherry, wind, sun, extremely details, modern, game cg, 4k, cherry trees, win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upward slope, masterpiece, 1 main road, (cars:1.2), cherry, wind, sun, extremely details, modern, game cg, 4k, cherry trees, wind, sunlight, bright, colorful, realism, road, upward slope, detailed, sharp focus, Japanese style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(bad art), (deformed), blurry, grey, dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00372-888511377-upward slope, masterpiece, 1 main road, (cars_1.2), cherry, wind, sun, extremely details, modern, game cg, 4k, (cherry trees_1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upward slope, masterpiece, 1 main road, (cars:1.2), cherry, wind, sun, extremely details, modern, game cg, 4k, (cherry trees:1.2), pink, wind, sunlight, bright, colorful, realism, road, upward slope, detailed, sharp focus, Japanese style, anime, (1girl:1.2), 1girl stand on high, long hair, white dress, sun hat, wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(bad art), (deformed), blurry, grey, dark, ((poorly drawn hands)), ((poorly drawn face)), (((mutation))), (((deformed))), ((ugly)), blurry, ((bad anatomy)), (((bad proportions))), ((extra limbs))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,9 +163,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -439,21 +462,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -513,6 +536,28 @@
       </c>
       <c r="C7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
